--- a/Data/aearep-1694/candidatepackages.xlsx
+++ b/Data/aearep-1694/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -37,16 +37,10 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1694/130141/Data-and-Codes/Data</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1694/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
     <t>VAR_paper_marketvalueofequity_AEJMupdateR2.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -112,10 +106,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1472</v>
+        <v>1306</v>
       </c>
       <c r="C2">
-        <v>0.48806366324424744</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D2"/>
     </row>
@@ -125,7 +119,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -133,7 +127,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -141,15 +135,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
